--- a/outputs-HGR-r202/g__CAG-495.xlsx
+++ b/outputs-HGR-r202/g__CAG-495.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,50 +442,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__CAG-495 sp000432275</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__CAG-495 sp000432275</t>
+          <t>2-s__CAG-495 sp000436375</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__CAG-495 sp000436375</t>
+          <t>3-s__CAG-495 sp001917125</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__CAG-495 sp001917125</t>
+          <t>4-s__CAG-495 sp900538765</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__CAG-495 sp900538765</t>
+          <t>5-s__CAG-495 sp900540425</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__CAG-495 sp900540425</t>
+          <t>6-s__CAG-495 sp900551585</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__CAG-495 sp900551585</t>
+          <t>max</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -498,35 +493,32 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.482818851475805e-07</v>
+        <v>0.01445246400999459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003401087462226821</v>
+        <v>0.01488814019280689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001034619666121748</v>
+        <v>0.8469686502140641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9883564942624506</v>
+        <v>0.09208376528115959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006528667699905586</v>
+        <v>0.02181808374688072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006518067752569705</v>
+        <v>0.00978889655509421</v>
       </c>
       <c r="H2" t="n">
-        <v>2.717585215306302e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9883564942624506</v>
+        <v>0.8469686502140641</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -539,35 +531,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.033891383026316e-08</v>
+        <v>0.9005654895763167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9699261873051328</v>
+        <v>0.04180205848568772</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01057503672567469</v>
+        <v>0.03023112461198025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01859319964974145</v>
+        <v>0.0259813841027275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008601012432335787</v>
+        <v>0.001313076641377684</v>
       </c>
       <c r="G3" t="n">
-        <v>3.676238500999713e-05</v>
+        <v>0.0001068665819100219</v>
       </c>
       <c r="H3" t="n">
-        <v>8.682352293575916e-06</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9699261873051328</v>
+        <v>0.9005654895763167</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -580,35 +569,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.680617363038503e-07</v>
+        <v>0.002523795580921724</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005660619061163227</v>
+        <v>0.981454617848682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9935377510402358</v>
+        <v>0.003817851721745771</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007731448600497615</v>
+        <v>0.01203342630999035</v>
       </c>
       <c r="F4" t="n">
-        <v>2.734396978935513e-06</v>
+        <v>0.0001684122196795954</v>
       </c>
       <c r="G4" t="n">
-        <v>2.538244604091368e-05</v>
+        <v>1.896318980333358e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.337951414329451e-10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9935377510402358</v>
+        <v>0.981454617848682</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -621,35 +607,32 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.051877039266833e-07</v>
+        <v>0.05322822829836421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06906257964079809</v>
+        <v>0.05452714246773454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01206947791489617</v>
+        <v>0.8284299969826293</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9186322241983605</v>
+        <v>0.04889402997120103</v>
       </c>
       <c r="F5" t="n">
-        <v>8.86568491858002e-05</v>
+        <v>0.01374652240483483</v>
       </c>
       <c r="G5" t="n">
-        <v>5.781625200366346e-05</v>
+        <v>0.001174079875235961</v>
       </c>
       <c r="H5" t="n">
-        <v>8.883995705187856e-05</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9186322241983605</v>
+        <v>0.8284299969826293</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -662,35 +645,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.763243629926529e-07</v>
+        <v>0.00937820718613409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009229463954614893</v>
+        <v>0.934421778469397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9870923255534084</v>
+        <v>0.006818597639445167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005816810167109309</v>
+        <v>0.04269383046005407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001455060868915601</v>
+        <v>0.006671816710518178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00164129088245716</v>
+        <v>1.57695344513766e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.39952997064318e-09</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9870923255534084</v>
+        <v>0.934421778469397</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -703,35 +683,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.493533946618489e-07</v>
+        <v>0.9360759359918452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9942008612607958</v>
+        <v>0.02881734534836055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001714450596616985</v>
+        <v>0.01050446364413314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003642022366217748</v>
+        <v>0.02003137742926742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003336152950895412</v>
+        <v>0.004298747080682053</v>
       </c>
       <c r="G7" t="n">
-        <v>8.043259576903329e-05</v>
+        <v>0.0002721305057116156</v>
       </c>
       <c r="H7" t="n">
-        <v>2.846853211626495e-05</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9942008612607958</v>
+        <v>0.9360759359918452</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -744,35 +721,32 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.493922362915405e-07</v>
+        <v>0.02023946573024621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0527717038782017</v>
+        <v>0.9680955338956391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9470055821877901</v>
+        <v>0.001552479321941991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000193484277084385</v>
+        <v>0.009662878223228819</v>
       </c>
       <c r="F8" t="n">
-        <v>9.395494685238931e-06</v>
+        <v>0.0004465847941168775</v>
       </c>
       <c r="G8" t="n">
-        <v>1.968466403635131e-05</v>
+        <v>3.058034826926936e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>1.059658633659165e-10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9470055821877901</v>
+        <v>0.9680955338956391</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -785,35 +759,32 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.93586341200468e-06</v>
+        <v>0.008517016051331892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002614400979032979</v>
+        <v>0.01865509775573064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001945932240882006</v>
+        <v>0.9427976128555092</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9952529456261461</v>
+        <v>0.01763122279440565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004298647215949092</v>
+        <v>0.01234959022775071</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003856201074183887</v>
+        <v>4.946031527193117e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.939267153320465e-08</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9952529456261461</v>
+        <v>0.9427976128555092</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -826,35 +797,32 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.156398564448765e-09</v>
+        <v>0.9408054701396174</v>
       </c>
       <c r="C10" t="n">
-        <v>0.982777288488548</v>
+        <v>0.03241730577071976</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001850065964868529</v>
+        <v>0.01302225893497424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01438946197788224</v>
+        <v>0.01117070586966031</v>
       </c>
       <c r="F10" t="n">
-        <v>2.068412713791762e-05</v>
+        <v>0.002347596998306147</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0009142125597831327</v>
+        <v>0.0002366622867220354</v>
       </c>
       <c r="H10" t="n">
-        <v>4.828072538183389e-05</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.982777288488548</v>
+        <v>0.9408054701396174</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -867,35 +835,32 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.546323132778829e-06</v>
+        <v>0.001858954448278675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001199476804831951</v>
+        <v>0.01310778851286545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002102420619669822</v>
+        <v>0.9718405089392212</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9964850980133626</v>
+        <v>0.008449255097682018</v>
       </c>
       <c r="F11" t="n">
-        <v>8.415493900077486e-05</v>
+        <v>0.00450628402753713</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001237587649504334</v>
+        <v>0.0002372089744155482</v>
       </c>
       <c r="H11" t="n">
-        <v>3.544535051630711e-06</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9964850980133626</v>
+        <v>0.9718405089392212</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -908,35 +873,32 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.345744626529227e-06</v>
+        <v>0.001777040664286566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001904497051282387</v>
+        <v>0.9849845387593701</v>
       </c>
       <c r="D12" t="n">
-        <v>0.997921262046751</v>
+        <v>0.00140613120401486</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001231839085891491</v>
+        <v>0.0114218680067404</v>
       </c>
       <c r="F12" t="n">
-        <v>1.520500324745476e-05</v>
+        <v>0.0004078076966877777</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45045198583384e-05</v>
+        <v>2.613668900302288e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7256448708418e-09</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.997921262046751</v>
+        <v>0.9849845387593701</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -949,35 +911,32 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.115426522236134e-08</v>
+        <v>0.005094209557334476</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001487953662925404</v>
+        <v>0.01787007212817525</v>
       </c>
       <c r="D13" t="n">
-        <v>6.550614065249789e-05</v>
+        <v>0.8694429304376479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9929845637973767</v>
+        <v>0.05285607888293694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001790176646749269</v>
+        <v>0.0311162448835535</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002968938272645291</v>
+        <v>0.023620464110352</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007028503253855373</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9929845637973767</v>
+        <v>0.8694429304376479</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -990,35 +949,32 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.869551966442592e-07</v>
+        <v>0.009647511493321274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002281830455572644</v>
+        <v>0.003677462870149066</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002940895653862891</v>
+        <v>0.9680559264710517</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9968419122718469</v>
+        <v>0.01571143519085339</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0002349604482888374</v>
+        <v>0.002448227875740421</v>
       </c>
       <c r="G14" t="n">
-        <v>9.988487614031632e-05</v>
+        <v>0.0004594360988842503</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002470354275684387</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.9968419122718469</v>
+        <v>0.9680559264710517</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1031,35 +987,32 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.395330493845467e-08</v>
+        <v>0.006774068447361084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003119210106319085</v>
+        <v>0.005076409998405491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001688121146722211</v>
+        <v>0.9266019737896224</v>
       </c>
       <c r="E15" t="n">
-        <v>0.986331286467373</v>
+        <v>0.04669905825981249</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009908052410939944</v>
+        <v>0.0130329538798829</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004703088200106165</v>
+        <v>0.001815535624915607</v>
       </c>
       <c r="H15" t="n">
-        <v>2.316127380264688e-06</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.986331286467373</v>
+        <v>0.9266019737896224</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1072,35 +1025,32 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.295767903391377e-06</v>
+        <v>0.009070748301031684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00125539916949783</v>
+        <v>0.05004993106285142</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004521255374544002</v>
+        <v>0.8736901861195695</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9877566025776651</v>
+        <v>0.06034120909877613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006423605444055958</v>
+        <v>0.00345600786601201</v>
       </c>
       <c r="G16" t="n">
-        <v>1.107292032956404e-05</v>
+        <v>0.00339191755175909</v>
       </c>
       <c r="H16" t="n">
-        <v>3.076874600431868e-05</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9877566025776651</v>
+        <v>0.8736901861195695</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1113,35 +1063,32 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.190135185978132e-08</v>
+        <v>0.01807361532236296</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00655258877707686</v>
+        <v>0.02907601453520446</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004161869457165612</v>
+        <v>0.9072395954239493</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9906202837634243</v>
+        <v>0.04167378152313803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00236291138956498</v>
+        <v>0.002669397271697408</v>
       </c>
       <c r="G17" t="n">
-        <v>3.677856010375054e-05</v>
+        <v>0.001267595923647794</v>
       </c>
       <c r="H17" t="n">
-        <v>1.118866276171537e-05</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9906202837634243</v>
+        <v>0.9072395954239493</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1154,35 +1101,32 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.183718994222142e-08</v>
+        <v>0.01577884458354112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03280419210185199</v>
+        <v>0.9322592145781413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9664644043298107</v>
+        <v>0.002434865222308866</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001877105913377017</v>
+        <v>0.04865801273650739</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000539153784241022</v>
+        <v>0.0007958702126542971</v>
       </c>
       <c r="G18" t="n">
-        <v>4.467183768894236e-06</v>
+        <v>7.319266684711373e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.017179969287336e-08</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.9664644043298107</v>
+        <v>0.9322592145781413</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1195,35 +1139,32 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.468294730938561e-08</v>
+        <v>0.004934925485652266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01877422149081596</v>
+        <v>0.9781384193159859</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9796822735836881</v>
+        <v>0.001677922854154485</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0001946986904286155</v>
+        <v>0.009989605962406582</v>
       </c>
       <c r="F19" t="n">
-        <v>2.22410126917149e-05</v>
+        <v>0.00525537733375896</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001326520287539799</v>
+        <v>3.749048041751175e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>2.518884564552214e-10</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9796822735836881</v>
+        <v>0.9781384193159859</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1236,35 +1177,32 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.839231412318129e-08</v>
+        <v>0.01241104960803974</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01849450649247764</v>
+        <v>0.9649476995146655</v>
       </c>
       <c r="D20" t="n">
-        <v>0.979283406274254</v>
+        <v>0.006641761450039834</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001099210675182085</v>
+        <v>0.01501642425172262</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001035943679600827</v>
+        <v>0.0009814088679454473</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0010192537331039</v>
+        <v>1.656307586809086e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>6.470834218792298e-11</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.979283406274254</v>
+        <v>0.9649476995146655</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1277,35 +1215,32 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.1410808049161e-06</v>
+        <v>0.003857869766210803</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001125261884572262</v>
+        <v>0.9771368832213707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9982458159041824</v>
+        <v>0.001128555102954959</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001225301206851127</v>
+        <v>0.01527705012532057</v>
       </c>
       <c r="F21" t="n">
-        <v>1.84072897390198e-05</v>
+        <v>0.002594911071503914</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004828394358996538</v>
+        <v>4.730712639003815e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>4.284116869122769e-09</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9982458159041824</v>
+        <v>0.9771368832213707</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1318,35 +1253,32 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.502359873302823e-07</v>
+        <v>0.003949683465773195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008867958807339536</v>
+        <v>0.9723358875047881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.988333047281206</v>
+        <v>0.007200410063039949</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002766807969640904</v>
+        <v>0.01579342670782875</v>
       </c>
       <c r="F22" t="n">
-        <v>1.814432826693521e-05</v>
+        <v>0.0007020535048847451</v>
       </c>
       <c r="G22" t="n">
-        <v>1.388630114097242e-05</v>
+        <v>1.853875368525597e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>5.076418378223062e-09</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.988333047281206</v>
+        <v>0.9723358875047881</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1359,35 +1291,32 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.809512647635975e-08</v>
+        <v>0.003775850239203854</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007558456673217246</v>
+        <v>0.9784471076039335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9884098436472871</v>
+        <v>0.005283124977894692</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003484847780641131</v>
+        <v>0.009824008001306747</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0002231754555712212</v>
+        <v>0.002668406379001691</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000323658277546042</v>
+        <v>1.502798659629787e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>7.061078492055458e-11</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9884098436472871</v>
+        <v>0.9784471076039335</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1400,35 +1329,32 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.250023844945666e-06</v>
+        <v>0.001811822905607816</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002997478596455172</v>
+        <v>0.9686012525529939</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9959025075756545</v>
+        <v>0.004226268866745669</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0003464143948940387</v>
+        <v>0.02455456771601144</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000716746097566268</v>
+        <v>0.0008020008716571263</v>
       </c>
       <c r="G24" t="n">
-        <v>3.560288852719202e-05</v>
+        <v>4.087086983983184e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>4.230579162223911e-10</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.9959025075756545</v>
+        <v>0.9686012525529939</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1441,35 +1367,32 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.368661517431368e-07</v>
+        <v>0.010008512338368</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0112111366304083</v>
+        <v>0.9730466220670553</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9863429490941171</v>
+        <v>0.004287381578231277</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002389484262697897</v>
+        <v>0.01199464367022644</v>
       </c>
       <c r="F25" t="n">
-        <v>1.653546666269809e-05</v>
+        <v>0.0006560364811520292</v>
       </c>
       <c r="G25" t="n">
-        <v>3.975346601889316e-05</v>
+        <v>6.803864966969692e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>4.213943386620522e-09</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.9863429490941171</v>
+        <v>0.9730466220670553</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1482,35 +1405,32 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.130220177821524e-08</v>
+        <v>0.01364450579886926</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01458895936618434</v>
+        <v>0.01022007626268319</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001390064918404333</v>
+        <v>0.9282655870691362</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9846301477188364</v>
+        <v>0.03192895700497655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0004973857679294051</v>
+        <v>0.01410303343844935</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001164714564123002</v>
+        <v>0.001837840425885439</v>
       </c>
       <c r="H26" t="n">
-        <v>2.801789659518576e-05</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.9846301477188364</v>
+        <v>0.9282655870691362</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1523,35 +1443,32 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.88572809655329e-09</v>
+        <v>0.01932324541576042</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03606644299853987</v>
+        <v>0.02495454029719691</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003392619716337725</v>
+        <v>0.8511491335327245</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9533464315592491</v>
+        <v>0.08964403619680811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006990238049395088</v>
+        <v>0.01252870429390353</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0001446934531122496</v>
+        <v>0.002400340263606655</v>
       </c>
       <c r="H27" t="n">
-        <v>5.957033763784471e-05</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.9533464315592491</v>
+        <v>0.8511491335327245</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1564,35 +1481,32 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.675232128853696e-08</v>
+        <v>0.01759842658120248</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01337647232701722</v>
+        <v>0.02979781288198221</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0005512291251006962</v>
+        <v>0.8351168982777178</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9839905229946787</v>
+        <v>0.06735437571747351</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001306684115338655</v>
+        <v>0.04163037393317406</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0007014496388620462</v>
+        <v>0.008502112608449882</v>
       </c>
       <c r="H28" t="n">
-        <v>7.358504668127559e-05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.9839905229946787</v>
+        <v>0.8351168982777178</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1605,35 +1519,32 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.656259572982064e-07</v>
+        <v>0.006465705979042588</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007415444511295243</v>
+        <v>0.01599861248771698</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001384931956752227</v>
+        <v>0.9356180329387476</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9906772759495901</v>
+        <v>0.03541538754223933</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0004816244092155499</v>
+        <v>0.004960820454717977</v>
       </c>
       <c r="G29" t="n">
-        <v>2.445624046223112e-05</v>
+        <v>0.00154144059753559</v>
       </c>
       <c r="H29" t="n">
-        <v>1.600130672731742e-05</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.9906772759495901</v>
+        <v>0.9356180329387476</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1646,35 +1557,32 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.993249280746704e-08</v>
+        <v>0.06195209920360722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07225067126786493</v>
+        <v>0.05446500387903404</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006816638935180037</v>
+        <v>0.8596524027460191</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9204995517048108</v>
+        <v>0.01880938391913999</v>
       </c>
       <c r="F30" t="n">
-        <v>7.20360152826072e-06</v>
+        <v>0.004544156178493942</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0004176142754838426</v>
+        <v>0.0005769540737056919</v>
       </c>
       <c r="H30" t="n">
-        <v>8.290282639528933e-06</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.9204995517048108</v>
+        <v>0.8596524027460191</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1687,35 +1595,32 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.766241835282501e-07</v>
+        <v>0.002301385204522094</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004400801496461926</v>
+        <v>0.9805960856467831</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9950840927389458</v>
+        <v>0.001869543327091686</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000298904836916756</v>
+        <v>0.0140863158216893</v>
       </c>
       <c r="F31" t="n">
-        <v>4.35605060578264e-05</v>
+        <v>0.001144827871974012</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001723636931889401</v>
+        <v>1.842127939937045e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>1.042453244053195e-10</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.9950840927389458</v>
+        <v>0.9805960856467831</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1728,35 +1633,32 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.161005055773911e-07</v>
+        <v>0.7972399889639968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8972055528839745</v>
+        <v>0.01146731973291309</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01514280779650684</v>
+        <v>0.1411109747060477</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08519646981932541</v>
+        <v>0.01980384544269527</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0003324324680229675</v>
+        <v>0.02879300517844892</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001005655731077333</v>
+        <v>0.001584865975898136</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00111676520058713</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.8972055528839745</v>
+        <v>0.7972399889639968</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -1769,35 +1671,32 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.005661934644529e-08</v>
+        <v>0.003168941203839154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0008650075586191044</v>
+        <v>0.01124763068070436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0007474585080842822</v>
+        <v>0.9185140510666544</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9923253550082316</v>
+        <v>0.05486672200568486</v>
       </c>
       <c r="F33" t="n">
-        <v>0.005976378905970559</v>
+        <v>0.007194174378284618</v>
       </c>
       <c r="G33" t="n">
-        <v>5.083943024161379e-05</v>
+        <v>0.005008480664832512</v>
       </c>
       <c r="H33" t="n">
-        <v>3.49505322336814e-05</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.9923253550082316</v>
+        <v>0.9185140510666544</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1810,35 +1709,32 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.551895206543878e-08</v>
+        <v>0.003367372485438362</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002896160349967642</v>
+        <v>0.00662446385796765</v>
       </c>
       <c r="D34" t="n">
-        <v>3.317652794133408e-05</v>
+        <v>0.9191216553583839</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9770755459493042</v>
+        <v>0.0621109200950208</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01985871303631824</v>
+        <v>0.006405998350802038</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0001316382673894518</v>
+        <v>0.002369589852387131</v>
       </c>
       <c r="H34" t="n">
-        <v>4.740350127069139e-06</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.9770755459493042</v>
+        <v>0.9191216553583839</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1851,35 +1747,32 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.611743217761019e-09</v>
+        <v>0.007445748740226036</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0009656037537637186</v>
+        <v>0.004585127981118865</v>
       </c>
       <c r="D35" t="n">
-        <v>5.592243420480781e-05</v>
+        <v>0.8966777968936016</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9502005017842942</v>
+        <v>0.06441041874498331</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04821682866266463</v>
+        <v>0.02229276927225993</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0005467952748104903</v>
+        <v>0.004588138367810173</v>
       </c>
       <c r="H35" t="n">
-        <v>1.434147851900531e-05</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.9502005017842942</v>
+        <v>0.8966777968936016</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1892,35 +1785,32 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.690839905604029e-09</v>
+        <v>0.02139788184825503</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004072819017391761</v>
+        <v>0.01872844186175459</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000589112105874591</v>
+        <v>0.8711587118766573</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9921685808923044</v>
+        <v>0.04293004640407416</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001964334482383423</v>
+        <v>0.04240265032256617</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002965097877649188</v>
+        <v>0.003382267686692673</v>
       </c>
       <c r="H36" t="n">
-        <v>7.952967701846702e-06</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.9921685808923044</v>
+        <v>0.8711587118766573</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -1933,35 +1823,32 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.508820254809371e-07</v>
+        <v>0.003585306947208765</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01291191438278413</v>
+        <v>0.9789092794838826</v>
       </c>
       <c r="D37" t="n">
-        <v>0.986660438900468</v>
+        <v>0.002450979696314445</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003635013325131571</v>
+        <v>0.01451306805962498</v>
       </c>
       <c r="F37" t="n">
-        <v>2.066787642617059e-06</v>
+        <v>0.0005323180503053291</v>
       </c>
       <c r="G37" t="n">
-        <v>6.122598648801554e-05</v>
+        <v>9.047762663789988e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>1.728078588249329e-09</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.986660438900468</v>
+        <v>0.9789092794838826</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -1974,35 +1861,32 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.711040034811736e-06</v>
+        <v>0.01138516335075425</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01016927664726011</v>
+        <v>0.8444099818341166</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9818547730518914</v>
+        <v>0.02311018559861056</v>
       </c>
       <c r="E38" t="n">
-        <v>0.006809258032407524</v>
+        <v>0.1178776963268733</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0006756529608553379</v>
+        <v>0.002962151649366697</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0004863117603531646</v>
+        <v>0.0002548212402785949</v>
       </c>
       <c r="H38" t="n">
-        <v>1.016507197684489e-06</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.9818547730518914</v>
+        <v>0.8444099818341166</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2015,35 +1899,32 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.556930850014226e-09</v>
+        <v>0.008339752657798523</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002081828516166789</v>
+        <v>0.0608359162947001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002543040094104082</v>
+        <v>0.7221739290992192</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9811246054048146</v>
+        <v>0.14016732223905</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01278147636357633</v>
+        <v>0.04179892837151103</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001435420639038453</v>
+        <v>0.02668415133772109</v>
       </c>
       <c r="H39" t="n">
-        <v>3.362142536894474e-05</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.9811246054048146</v>
+        <v>0.7221739290992192</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2056,35 +1937,32 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.871491295614869e-08</v>
+        <v>0.002663625217439466</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003395718882879878</v>
+        <v>0.006239771996412315</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001129496407735008</v>
+        <v>0.972241417974541</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9952497117535359</v>
+        <v>0.01758473948475908</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001785569190091268</v>
+        <v>0.001056509978712859</v>
       </c>
       <c r="G40" t="n">
-        <v>4.382660953461826e-05</v>
+        <v>0.0002139353481352948</v>
       </c>
       <c r="H40" t="n">
-        <v>2.650712392580608e-06</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.9952497117535359</v>
+        <v>0.972241417974541</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2097,35 +1975,32 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.03173894882289e-08</v>
+        <v>0.893287181868922</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9819508063782019</v>
+        <v>0.04944020504257583</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00597510869162012</v>
+        <v>0.007928569730221125</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002254730573512686</v>
+        <v>0.007170430774039357</v>
       </c>
       <c r="F41" t="n">
-        <v>4.071062525129323e-06</v>
+        <v>0.0418017269764608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.009797427004205952</v>
+        <v>0.0003718856077808206</v>
       </c>
       <c r="H41" t="n">
-        <v>1.776597254494756e-05</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.9819508063782019</v>
+        <v>0.893287181868922</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -2138,35 +2013,32 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.30534451412546e-06</v>
+        <v>0.001199542139691549</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0004933275204817042</v>
+        <v>0.9714522130549447</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9814457246008589</v>
+        <v>0.02040151500953831</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0180126495139395</v>
+        <v>0.006308056930901984</v>
       </c>
       <c r="F42" t="n">
-        <v>5.279513073030941e-06</v>
+        <v>0.0006347576184490654</v>
       </c>
       <c r="G42" t="n">
-        <v>4.071292929212382e-05</v>
+        <v>3.915246474594131e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>5.778405479041891e-10</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.9814457246008589</v>
+        <v>0.9714522130549447</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2179,35 +2051,32 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.651398237517279e-05</v>
+        <v>0.001232818336310161</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002103522009886508</v>
+        <v>0.9748234761544032</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9959034243521554</v>
+        <v>0.01183141176546832</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003287951160052586</v>
+        <v>0.009689579291893607</v>
       </c>
       <c r="F43" t="n">
-        <v>1.049955899889421e-05</v>
+        <v>0.002421372690886867</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0005712586509150724</v>
+        <v>1.341761037952996e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>9.45143178989049e-11</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.9959034243521554</v>
+        <v>0.9748234761544032</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2220,35 +2089,32 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.32988242418573e-07</v>
+        <v>0.013008432770672</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02902752515987939</v>
+        <v>0.9635292948664294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9691049574292957</v>
+        <v>0.008639138282752413</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001820158224676815</v>
+        <v>0.01289273078736768</v>
       </c>
       <c r="F44" t="n">
-        <v>1.041730824696357e-05</v>
+        <v>0.001926352468943686</v>
       </c>
       <c r="G44" t="n">
-        <v>3.680861384185739e-05</v>
+        <v>4.050823834779565e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>2.758168310209351e-10</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.9691049574292957</v>
+        <v>0.9635292948664294</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2261,35 +2127,32 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.700244635190564e-08</v>
+        <v>0.003822492226079183</v>
       </c>
       <c r="C45" t="n">
-        <v>0.003601911944128275</v>
+        <v>0.01685167795689201</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0006650928644401062</v>
+        <v>0.9316559216342608</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9941498994489182</v>
+        <v>0.03509362548268734</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005166117318889942</v>
+        <v>0.0117609396026455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001064553546262216</v>
+        <v>0.0008153430974350985</v>
       </c>
       <c r="H45" t="n">
-        <v>1.863461915762271e-06</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.9941498994489182</v>
+        <v>0.9316559216342608</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2302,35 +2165,32 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.662570409204591e-08</v>
+        <v>0.008411150346597427</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01959585598937835</v>
+        <v>0.008507835280297337</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002470999618081897</v>
+        <v>0.9584013924521567</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9777680027330692</v>
+        <v>0.02379319492099423</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0001533428497235715</v>
+        <v>0.0007954495709791193</v>
       </c>
       <c r="G46" t="n">
-        <v>1.097748216277585e-05</v>
+        <v>9.097742897515887e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>7.847018800605713e-07</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.9777680027330692</v>
+        <v>0.9584013924521567</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2343,35 +2203,32 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.233008881970741e-08</v>
+        <v>0.004411297222277482</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001782530125429261</v>
+        <v>0.01527761445864085</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003458434118429362</v>
+        <v>0.9524326127962089</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9963399764155323</v>
+        <v>0.02482003150382018</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001454366218600267</v>
+        <v>0.001540104101712921</v>
       </c>
       <c r="G47" t="n">
-        <v>7.409158768041528e-05</v>
+        <v>0.001518339917339516</v>
       </c>
       <c r="H47" t="n">
-        <v>3.169910826160682e-06</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.9963399764155323</v>
+        <v>0.9524326127962089</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2384,35 +2241,32 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.591967718760076e-08</v>
+        <v>0.01228336753584119</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005840964677753254</v>
+        <v>0.02766442491082262</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0006354040120526899</v>
+        <v>0.8552750276705798</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9896829665366522</v>
+        <v>0.08107813134185519</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003778819936325425</v>
+        <v>0.01619229954128429</v>
       </c>
       <c r="G48" t="n">
-        <v>5.856525610276752e-05</v>
+        <v>0.00750674899961672</v>
       </c>
       <c r="H48" t="n">
-        <v>3.263661436545874e-06</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.9896829665366522</v>
+        <v>0.8552750276705798</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2425,35 +2279,32 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.785563464109609e-08</v>
+        <v>0.05165481103664886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1243272162774041</v>
+        <v>0.0144385448731348</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002401513183721167</v>
+        <v>0.01939779825101513</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0002615644818668909</v>
+        <v>0.04574077353369138</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03836710495190179</v>
+        <v>0.8687115949471358</v>
       </c>
       <c r="G49" t="n">
-        <v>0.834642241975062</v>
+        <v>5.647735837403736e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>3.312744094903936e-07</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.834642241975062</v>
+        <v>0.8687115949471358</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp900540425</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp900540425</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>s__CAG-495 sp900540425</t>
         </is>
@@ -2466,35 +2317,32 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.512881929519285e-07</v>
+        <v>0.008971597675873629</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006894273948731995</v>
+        <v>0.03584374149437184</v>
       </c>
       <c r="D50" t="n">
-        <v>0.002743032627387134</v>
+        <v>0.9241972622544928</v>
       </c>
       <c r="E50" t="n">
-        <v>0.989881480791986</v>
+        <v>0.02544349880929995</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000362987137724901</v>
+        <v>0.002730708130747849</v>
       </c>
       <c r="G50" t="n">
-        <v>5.409264276565369e-05</v>
+        <v>0.002813191635213851</v>
       </c>
       <c r="H50" t="n">
-        <v>6.338156321128868e-05</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.989881480791986</v>
+        <v>0.9241972622544928</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2507,35 +2355,32 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.700998603801628e-07</v>
+        <v>0.01885546089425306</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03784674831272203</v>
+        <v>0.9388855404564559</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9608937626717277</v>
+        <v>0.007263445818430945</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0006184758498655866</v>
+        <v>0.0241027550148498</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0002795983205337933</v>
+        <v>0.0108893368430877</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0003609446696599328</v>
+        <v>3.460972922425733e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>7.563068037326446e-11</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.9608937626717277</v>
+        <v>0.9388855404564559</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2548,35 +2393,32 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.3370266080037e-07</v>
+        <v>0.003272694523315316</v>
       </c>
       <c r="C52" t="n">
-        <v>0.002210069772503208</v>
+        <v>0.01094404924035662</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001409286607602021</v>
+        <v>0.9485797427915089</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9968922289418303</v>
+        <v>0.03403206691823189</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0006614159081475715</v>
+        <v>0.002289523124806194</v>
       </c>
       <c r="G52" t="n">
-        <v>8.994767855591656e-05</v>
+        <v>0.0008819234017810385</v>
       </c>
       <c r="H52" t="n">
-        <v>5.275335542023435e-06</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.9968922289418303</v>
+        <v>0.9485797427915089</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2589,35 +2431,32 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.917859598933438e-07</v>
+        <v>0.002834363978058624</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006821577207683669</v>
+        <v>0.9756657545588451</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9915222483823605</v>
+        <v>0.002817137228752185</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001255624602228407</v>
+        <v>0.0178544853933932</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0002038939395070094</v>
+        <v>0.0008256948509107498</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0001964640443712931</v>
+        <v>2.563990040021962e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>3.788941675865954e-11</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.9915222483823605</v>
+        <v>0.9756657545588451</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2630,35 +2469,32 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9.419304604600675e-09</v>
+        <v>0.00415736118625461</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001583092603375427</v>
+        <v>0.008877472141305062</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0004123601314239003</v>
+        <v>0.9621239359329036</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9972054104763681</v>
+        <v>0.01290138874647891</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00032083159601121</v>
+        <v>0.01076995026411396</v>
       </c>
       <c r="G54" t="n">
-        <v>0.000472140816656963</v>
+        <v>0.001169891728943925</v>
       </c>
       <c r="H54" t="n">
-        <v>6.154956859752124e-06</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.9972054104763681</v>
+        <v>0.9621239359329036</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2671,35 +2507,32 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.186399098328966e-07</v>
+        <v>0.006732400188553578</v>
       </c>
       <c r="C55" t="n">
-        <v>0.008014823579876779</v>
+        <v>0.9628845325685805</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9375769081626522</v>
+        <v>0.0211618389309838</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05429922106990221</v>
+        <v>0.008590379888436868</v>
       </c>
       <c r="F55" t="n">
-        <v>3.370187663884415e-05</v>
+        <v>0.000626998344459095</v>
       </c>
       <c r="G55" t="n">
-        <v>7.522616881239176e-05</v>
+        <v>3.850078986186593e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>5.022075931681071e-10</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.9375769081626522</v>
+        <v>0.9628845325685805</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2712,35 +2545,32 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.56185175642994e-07</v>
+        <v>0.02001303692844055</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01373870892268252</v>
+        <v>0.08187557950205401</v>
       </c>
       <c r="D56" t="n">
-        <v>0.003982123839956635</v>
+        <v>0.8175728199383099</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9800856260728423</v>
+        <v>0.07224435758936862</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0009945353639893993</v>
+        <v>0.006019644652936309</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001193852726568262</v>
+        <v>0.002274561388890864</v>
       </c>
       <c r="H56" t="n">
-        <v>4.79688878528311e-06</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.9800856260728423</v>
+        <v>0.8175728199383099</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2753,35 +2583,32 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.772608661148592e-08</v>
+        <v>0.007723563353478087</v>
       </c>
       <c r="C57" t="n">
-        <v>0.002864856500938828</v>
+        <v>0.01656333353838524</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001215604628025314</v>
+        <v>0.9504940148078862</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9954936865691325</v>
+        <v>0.02132769017819156</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0003886324234279858</v>
+        <v>0.003029714194176538</v>
       </c>
       <c r="G57" t="n">
-        <v>3.250677035833552e-05</v>
+        <v>0.0008616839278824138</v>
       </c>
       <c r="H57" t="n">
-        <v>4.685382030403973e-06</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.9954936865691325</v>
+        <v>0.9504940148078862</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -2794,35 +2621,32 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9.327781021449568e-08</v>
+        <v>0.9253836395753062</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9867066505193528</v>
+        <v>0.006680174498182191</v>
       </c>
       <c r="D58" t="n">
-        <v>5.394514050404817e-05</v>
+        <v>0.02407359498804117</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01295215299587092</v>
+        <v>0.0411465123706461</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0001530941003160704</v>
+        <v>0.0019800147529164</v>
       </c>
       <c r="G58" t="n">
-        <v>3.554558284752401e-05</v>
+        <v>0.0007360638149080004</v>
       </c>
       <c r="H58" t="n">
-        <v>9.851838329828586e-05</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.9867066505193528</v>
+        <v>0.9253836395753062</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -2835,35 +2659,32 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.305393022556469e-07</v>
+        <v>0.9405113462074314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.976418993902761</v>
+        <v>0.02124964181407351</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009027977312506853</v>
+        <v>0.01279871362346399</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01080132621519083</v>
+        <v>0.02119437197516724</v>
       </c>
       <c r="F59" t="n">
-        <v>0.000132339190052041</v>
+        <v>0.004024631435297667</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003223999600041143</v>
+        <v>0.0002212949445662498</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0003948332401459307</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.976418993902761</v>
+        <v>0.9405113462074314</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -2876,35 +2697,32 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.359220535367889e-07</v>
+        <v>0.002539619309169023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.009885943270313394</v>
+        <v>0.9717702218211524</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9814958929208274</v>
+        <v>0.01163134601373281</v>
       </c>
       <c r="E60" t="n">
-        <v>0.008578129905176642</v>
+        <v>0.01388292990638448</v>
       </c>
       <c r="F60" t="n">
-        <v>3.715116862262712e-05</v>
+        <v>0.0001731490106632281</v>
       </c>
       <c r="G60" t="n">
-        <v>2.443475695580354e-06</v>
+        <v>2.73393889806935e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>3.337310726582787e-09</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.9814958929208274</v>
+        <v>0.9717702218211524</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2917,35 +2735,32 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.0065498793397e-07</v>
+        <v>0.003867478358076176</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005693234771894179</v>
+        <v>0.9732241567143152</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9915779373746882</v>
+        <v>0.005194270597154516</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002628617526773762</v>
+        <v>0.01681572033480535</v>
       </c>
       <c r="F61" t="n">
-        <v>3.858939839776856e-05</v>
+        <v>0.0008948515476258939</v>
       </c>
       <c r="G61" t="n">
-        <v>6.151982305554716e-05</v>
+        <v>3.522448022919982e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>4.502028836705121e-10</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.9915779373746882</v>
+        <v>0.9732241567143152</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2958,35 +2773,32 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.698310110589464e-07</v>
+        <v>0.00298676834434182</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0045861157962473</v>
+        <v>0.9762869554766174</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9951313803572298</v>
+        <v>0.001980480689099272</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0001787245374714733</v>
+        <v>0.01825801465793325</v>
       </c>
       <c r="F62" t="n">
-        <v>6.271975090453815e-05</v>
+        <v>0.0004803920174750753</v>
       </c>
       <c r="G62" t="n">
-        <v>4.058669875570197e-05</v>
+        <v>7.388814533127128e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>3.028380174360847e-09</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.9951313803572298</v>
+        <v>0.9762869554766174</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -2999,35 +2811,32 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.559488581820725e-08</v>
+        <v>0.005485901386335246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01828582887618126</v>
+        <v>0.9729001682111607</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9805671428085422</v>
+        <v>0.003682876755573694</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0007365199696742797</v>
+        <v>0.01642604539109243</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0002459506742500171</v>
+        <v>0.001499430287222532</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0001645317552463826</v>
+        <v>5.577968615512886e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>3.212201455496545e-10</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.9805671428085422</v>
+        <v>0.9729001682111607</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -3036,80 +2845,74 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52916.fa</t>
+          <t>even_MAG-GUT52923.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1519721214893797</v>
+        <v>0.8619770586864285</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2880898706980132</v>
+        <v>0.06814277351898558</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00848284869143837</v>
+        <v>0.03651281183439161</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1348189867101551</v>
+        <v>0.02122621674982474</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4145781020974563</v>
+        <v>0.01194308310975767</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0005719325267468791</v>
+        <v>0.0001980561006120697</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001486137786810501</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.4145781020974563</v>
+        <v>0.8619770586864285</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp900538765</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp900538765(reject)</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52923.fa</t>
+          <t>even_MAG-GUT52941.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8.836225089176905e-08</v>
+        <v>0.9251111331149776</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9453075940688356</v>
+        <v>0.01255475817978183</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006755355605487358</v>
+        <v>0.02417616375863669</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04751349850723973</v>
+        <v>0.03435259466243232</v>
       </c>
       <c r="F65" t="n">
-        <v>3.595018705333246e-05</v>
+        <v>0.003248641325590325</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0003849314306430862</v>
+        <v>0.0005567089585811387</v>
       </c>
       <c r="H65" t="n">
-        <v>2.581838490047624e-06</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.9453075940688356</v>
+        <v>0.9251111331149776</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000432275</t>
         </is>
@@ -3118,326 +2921,302 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52941.fa</t>
+          <t>even_MAG-GUT53133.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.654911140123192e-08</v>
+        <v>0.008389485534132849</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9763596835695979</v>
+        <v>0.9717342515238804</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0006796087743164382</v>
+        <v>0.004577599394954378</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01877527719344214</v>
+        <v>0.01396781778216083</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003958712551162027</v>
+        <v>0.001324510871787343</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0001569789059529583</v>
+        <v>6.334893084172448e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>6.964245641713123e-05</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.9763596835695979</v>
+        <v>0.9717342515238804</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53133.fa</t>
+          <t>even_MAG-GUT53142.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9.774345173949477e-08</v>
+        <v>0.02666545696025424</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0162170350202194</v>
+        <v>0.6512432800446309</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9827899641946258</v>
+        <v>0.05932517213333648</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0008748162044685243</v>
+        <v>0.254083323281566</v>
       </c>
       <c r="F67" t="n">
-        <v>7.66532452956371e-05</v>
+        <v>0.008008505547249896</v>
       </c>
       <c r="G67" t="n">
-        <v>4.143349271592938e-05</v>
+        <v>0.0006742620329625805</v>
       </c>
       <c r="H67" t="n">
-        <v>9.922297335002866e-11</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.9827899641946258</v>
+        <v>0.6512432800446309</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp000436375(reject)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53142.fa</t>
+          <t>even_MAG-GUT65550.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.180062035766762e-05</v>
+        <v>0.893287181868922</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01443460925799438</v>
+        <v>0.04944020504257583</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9285022708733865</v>
+        <v>0.007928569730221125</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0228477487065444</v>
+        <v>0.007170430774039357</v>
       </c>
       <c r="F68" t="n">
-        <v>0.03416279128360625</v>
+        <v>0.0418017269764608</v>
       </c>
       <c r="G68" t="n">
-        <v>2.056925892102699e-05</v>
+        <v>0.0003718856077808206</v>
       </c>
       <c r="H68" t="n">
-        <v>2.099991897728614e-07</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.9285022708733865</v>
+        <v>0.893287181868922</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65550.fa</t>
+          <t>even_MAG-GUT65895.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.03173894882289e-08</v>
+        <v>0.004807596422647129</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9819508063782019</v>
+        <v>0.9707377169758665</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00597510869162012</v>
+        <v>0.01657964620393777</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002254730573512686</v>
+        <v>0.007302431454252093</v>
       </c>
       <c r="F69" t="n">
-        <v>4.071062525129323e-06</v>
+        <v>0.0005615128157771821</v>
       </c>
       <c r="G69" t="n">
-        <v>0.009797427004205952</v>
+        <v>1.109612751928633e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>1.776597254494756e-05</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.9819508063782019</v>
+        <v>0.9707377169758665</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65895.fa</t>
+          <t>even_MAG-GUT6619.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.070228376341071e-08</v>
+        <v>0.9628374702343075</v>
       </c>
       <c r="C70" t="n">
-        <v>0.004589021837641824</v>
+        <v>0.01964254547853412</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9788681353805821</v>
+        <v>0.007442581112994163</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01643791272544187</v>
+        <v>0.008272462692659922</v>
       </c>
       <c r="F70" t="n">
-        <v>7.474945034095659e-06</v>
+        <v>0.001519305514498427</v>
       </c>
       <c r="G70" t="n">
-        <v>9.74135372206175e-05</v>
+        <v>0.0002856349670058086</v>
       </c>
       <c r="H70" t="n">
-        <v>1.0871795715482e-08</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.9788681353805821</v>
+        <v>0.9628374702343075</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6619.fa</t>
+          <t>even_MAG-GUT66279.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.401737968667931e-08</v>
+        <v>0.01168572146625416</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9926876038117317</v>
+        <v>0.01627031060832835</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002732205482731571</v>
+        <v>0.9351108022515354</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003316669840020614</v>
+        <v>0.025726233288811</v>
       </c>
       <c r="F71" t="n">
-        <v>1.034698646163908e-05</v>
+        <v>0.007739702405399981</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001146937077989834</v>
+        <v>0.003467229979671196</v>
       </c>
       <c r="H71" t="n">
-        <v>0.000106172783684995</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.9926876038117317</v>
+        <v>0.9351108022515354</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66279.fa</t>
+          <t>even_MAG-GUT66843.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.256390620383312e-07</v>
+        <v>0.002663568800045651</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004032092023559464</v>
+        <v>0.9754281260723636</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0005868728305165574</v>
+        <v>0.01352340391219016</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9943102155810081</v>
+        <v>0.007595063457449128</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0002938817882117307</v>
+        <v>0.0007871254833066874</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0007685565297484697</v>
+        <v>2.712274644798211e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>8.255607893504323e-06</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.9943102155810081</v>
+        <v>0.9754281260723636</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66843.fa</t>
+          <t>even_MAG-GUT66846.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.425839584399281e-06</v>
+        <v>0.03612691386283722</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001962727727896954</v>
+        <v>0.9289460385163725</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9918606175893018</v>
+        <v>0.01063379984936276</v>
       </c>
       <c r="E73" t="n">
-        <v>0.006150346137802814</v>
+        <v>0.02336561287487749</v>
       </c>
       <c r="F73" t="n">
-        <v>6.027948879020304e-06</v>
+        <v>0.000781629992091395</v>
       </c>
       <c r="G73" t="n">
-        <v>1.885425349430835e-05</v>
+        <v>0.0001460049044586409</v>
       </c>
       <c r="H73" t="n">
-        <v>5.030408447158091e-10</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.9918606175893018</v>
+        <v>0.9289460385163725</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -3446,162 +3225,150 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66846.fa</t>
+          <t>even_MAG-GUT6708.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5.389734755957773e-09</v>
+        <v>0.03071136999003169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01838473951539106</v>
+        <v>0.02265173727059206</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9799456316246747</v>
+        <v>0.8907188386079529</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001117093992534357</v>
+        <v>0.02302010269632266</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0005398869880518228</v>
+        <v>0.03253464728378915</v>
       </c>
       <c r="G74" t="n">
-        <v>1.257312517700233e-05</v>
+        <v>0.0003633041513114513</v>
       </c>
       <c r="H74" t="n">
-        <v>6.936443608518273e-08</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.9799456316246747</v>
+        <v>0.8907188386079529</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6708.fa</t>
+          <t>even_MAG-GUT6722.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.108668579319522e-08</v>
+        <v>0.922813646988245</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06550185510280346</v>
+        <v>0.03546891734992132</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002218991364509056</v>
+        <v>0.01341656805298661</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9303732016501447</v>
+        <v>0.02131381512397981</v>
       </c>
       <c r="F75" t="n">
-        <v>6.975393537031947e-06</v>
+        <v>0.006270759633813106</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001896389325848646</v>
+        <v>0.0007162928510542152</v>
       </c>
       <c r="H75" t="n">
-        <v>2.576076471331654e-06</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.9303732016501447</v>
+        <v>0.922813646988245</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6722.fa</t>
+          <t>even_MAG-GUT67367.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.271141900169838e-08</v>
+        <v>0.031466431648349</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9876921092003645</v>
+        <v>0.03648163168688698</v>
       </c>
       <c r="D76" t="n">
-        <v>0.002438204155255137</v>
+        <v>0.6702569939461093</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00882810692136715</v>
+        <v>0.2484945994941956</v>
       </c>
       <c r="F76" t="n">
-        <v>9.349597188843881e-05</v>
+        <v>0.003778929295984864</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0008533274179698908</v>
+        <v>0.009521413928474238</v>
       </c>
       <c r="H76" t="n">
-        <v>9.473362173582149e-05</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.9876921092003645</v>
+        <v>0.6702569939461093</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67367.fa</t>
+          <t>even_MAG-GUT67550.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8.510640049939183e-06</v>
+        <v>0.01518895948823446</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02268033925690945</v>
+        <v>0.01016039533610561</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0002477713793100895</v>
+        <v>0.9590934115482219</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9458288179673908</v>
+        <v>0.01272742115812665</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03079294859488557</v>
+        <v>0.002708769389436851</v>
       </c>
       <c r="G77" t="n">
-        <v>7.239290944900834e-06</v>
+        <v>0.0001210430798746324</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0004343728705093069</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.9458288179673908</v>
+        <v>0.9590934115482219</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -3610,203 +3377,188 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67550.fa</t>
+          <t>even_MAG-GUT67681.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.762514959322346e-08</v>
+        <v>0.005709341946789803</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0136026960449536</v>
+        <v>0.9659621991155732</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002924221965141559</v>
+        <v>0.005081824627441302</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9833043082717527</v>
+        <v>0.02167398010318331</v>
       </c>
       <c r="F78" t="n">
-        <v>7.721466590402872e-05</v>
+        <v>0.001563530222366779</v>
       </c>
       <c r="G78" t="n">
-        <v>8.385293767242297e-05</v>
+        <v>9.123984645501782e-06</v>
       </c>
       <c r="H78" t="n">
-        <v>7.648489425884191e-06</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.9833043082717527</v>
+        <v>0.9659621991155732</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67681.fa</t>
+          <t>even_MAG-GUT67689.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.714719848369302e-08</v>
+        <v>0.007081334745897293</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06161940453771624</v>
+        <v>0.005640568059844646</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9377856906481743</v>
+        <v>0.9455156160700969</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0005210320235045132</v>
+        <v>0.02712947249930191</v>
       </c>
       <c r="F79" t="n">
-        <v>9.387498280394022e-06</v>
+        <v>0.008102108540073857</v>
       </c>
       <c r="G79" t="n">
-        <v>6.446318579099753e-05</v>
+        <v>0.006530900084785195</v>
       </c>
       <c r="H79" t="n">
-        <v>4.959335049907565e-09</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.9377856906481743</v>
+        <v>0.9455156160700969</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67689.fa</t>
+          <t>even_MAG-GUT68091.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.599932372519668e-07</v>
+        <v>0.9367745275521934</v>
       </c>
       <c r="C80" t="n">
-        <v>0.003285401783663748</v>
+        <v>0.01222336057428665</v>
       </c>
       <c r="D80" t="n">
-        <v>6.433614176896632e-05</v>
+        <v>0.03480357054795146</v>
       </c>
       <c r="E80" t="n">
-        <v>0.995344629665074</v>
+        <v>0.005497798790980407</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001076199596476088</v>
+        <v>0.01053691773044683</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0002093705951796111</v>
+        <v>0.0001638248041412045</v>
       </c>
       <c r="H80" t="n">
-        <v>1.99022246001351e-05</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.995344629665074</v>
+        <v>0.9367745275521934</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68091.fa</t>
+          <t>even_MAG-GUT68308.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.24265884372431e-08</v>
+        <v>0.01082940552310656</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9592859988748527</v>
+        <v>0.01846763095723642</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0002038068878654399</v>
+        <v>0.923711425933878</v>
       </c>
       <c r="E81" t="n">
-        <v>0.040035630803753</v>
+        <v>0.04124402045164489</v>
       </c>
       <c r="F81" t="n">
-        <v>1.225931204030743e-06</v>
+        <v>0.002316931858882985</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0004730383914955911</v>
+        <v>0.003430585275251095</v>
       </c>
       <c r="H81" t="n">
-        <v>2.766842408621919e-07</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.9592859988748527</v>
+        <v>0.923711425933878</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68308.fa</t>
+          <t>even_MAG-GUT68561.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7.773180998913559e-08</v>
+        <v>0.004605774641157735</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009324840086614349</v>
+        <v>0.01528201100074513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001541809419099188</v>
+        <v>0.9635211473279129</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9888354296925169</v>
+        <v>0.01367609486514782</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00166923118558212</v>
+        <v>0.002554714167138167</v>
       </c>
       <c r="G82" t="n">
-        <v>5.239779585482078e-06</v>
+        <v>0.0003602579978982494</v>
       </c>
       <c r="H82" t="n">
-        <v>1.100058198126556e-05</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.9888354296925169</v>
+        <v>0.9635211473279129</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -3815,39 +3567,36 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68561.fa</t>
+          <t>even_MAG-GUT68780.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8.155357189073149e-07</v>
+        <v>0.04393355329495847</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0003921903952256682</v>
+        <v>0.03568034619029686</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0007055881733950528</v>
+        <v>0.8364808120247821</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9966830454759878</v>
+        <v>0.0518311375950218</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00219661784424143</v>
+        <v>0.03162069778246972</v>
       </c>
       <c r="G83" t="n">
-        <v>2.07894069914232e-05</v>
+        <v>0.0004534531124710221</v>
       </c>
       <c r="H83" t="n">
-        <v>9.531684397209208e-07</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.9966830454759878</v>
+        <v>0.8364808120247821</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -3856,39 +3605,36 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68780.fa</t>
+          <t>even_MAG-GUT69595.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8.045214852632332e-09</v>
+        <v>0.01064097129539188</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04054866508502169</v>
+        <v>0.0183029247098913</v>
       </c>
       <c r="D84" t="n">
-        <v>0.005067064145895253</v>
+        <v>0.9175579789996844</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9516585881059397</v>
+        <v>0.04802273283689214</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001784565692205286</v>
+        <v>0.003401605140190818</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00094055914461264</v>
+        <v>0.002073787017949576</v>
       </c>
       <c r="H84" t="n">
-        <v>5.497811104590754e-07</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.9516585881059397</v>
+        <v>0.9175579789996844</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -3897,39 +3643,36 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69595.fa</t>
+          <t>even_MAG-GUT69640.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>8.384927442202444e-08</v>
+        <v>0.0459035543686795</v>
       </c>
       <c r="C85" t="n">
-        <v>0.007526136921268442</v>
+        <v>0.01921909869443007</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0007946696996037643</v>
+        <v>0.8977187512897535</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9907840979152189</v>
+        <v>0.02617641619722189</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007860020475735474</v>
+        <v>0.009853311517711074</v>
       </c>
       <c r="G85" t="n">
-        <v>7.904279378392251e-05</v>
+        <v>0.001128867932203867</v>
       </c>
       <c r="H85" t="n">
-        <v>2.996677327693393e-05</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.9907840979152189</v>
+        <v>0.8977187512897535</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -3938,39 +3681,36 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69640.fa</t>
+          <t>even_MAG-GUT69665.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8.665676357637152e-09</v>
+        <v>0.003049718417034267</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06394854193856142</v>
+        <v>0.02022010875341245</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001487490710821261</v>
+        <v>0.9458538759184235</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9342623151921229</v>
+        <v>0.02274123204246403</v>
       </c>
       <c r="F86" t="n">
-        <v>5.884787129948042e-05</v>
+        <v>0.007209538254903195</v>
       </c>
       <c r="G86" t="n">
-        <v>0.000181276298596976</v>
+        <v>0.0009255266137625837</v>
       </c>
       <c r="H86" t="n">
-        <v>6.15193229218871e-05</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.9342623151921229</v>
+        <v>0.9458538759184235</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -3979,203 +3719,188 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69665.fa</t>
+          <t>even_MAG-GUT69729.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8.07150918751745e-08</v>
+        <v>0.001409276710088167</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00121777902589154</v>
+        <v>0.9869140642318233</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0009854482336455286</v>
+        <v>0.003391639062276382</v>
       </c>
       <c r="E87" t="n">
-        <v>0.995269813375282</v>
+        <v>0.007470994129867881</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002451533726569088</v>
+        <v>0.000813407573463059</v>
       </c>
       <c r="G87" t="n">
-        <v>7.266400711837877e-05</v>
+        <v>6.182924813057012e-07</v>
       </c>
       <c r="H87" t="n">
-        <v>2.680916401585385e-06</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.995269813375282</v>
+        <v>0.9869140642318233</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69729.fa</t>
+          <t>even_MAG-GUT70635.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.520917185256635e-05</v>
+        <v>0.8967155784917067</v>
       </c>
       <c r="C88" t="n">
-        <v>0.00137021792678554</v>
+        <v>0.02130769094855782</v>
       </c>
       <c r="D88" t="n">
-        <v>0.997333718802409</v>
+        <v>0.03190229848525344</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0008563280645160185</v>
+        <v>0.03019127258981565</v>
       </c>
       <c r="F88" t="n">
-        <v>8.611673622147105e-06</v>
+        <v>0.01943620882225078</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0004159143275867133</v>
+        <v>0.0004469506624157163</v>
       </c>
       <c r="H88" t="n">
-        <v>3.322806935920082e-11</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.997333718802409</v>
+        <v>0.8967155784917067</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70635.fa</t>
+          <t>even_MAG-GUT71390.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.699174564103291e-06</v>
+        <v>0.002111754904765349</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9750256389750194</v>
+        <v>0.9756245699802304</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002709778202484721</v>
+        <v>0.01103861330935416</v>
       </c>
       <c r="E89" t="n">
-        <v>0.004494693804915398</v>
+        <v>0.01039538861863987</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0004241509175639214</v>
+        <v>0.0008243231807382596</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0173039507749272</v>
+        <v>5.350006271874928e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>4.008815052536592e-05</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.9750256389750194</v>
+        <v>0.9756245699802304</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71390.fa</t>
+          <t>even_MAG-GUT72079.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.801592245734403e-07</v>
+        <v>0.01311601705776371</v>
       </c>
       <c r="C90" t="n">
-        <v>0.002832255873570991</v>
+        <v>0.009378432211511733</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9864050441778034</v>
+        <v>0.9200243108761655</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01062043615867788</v>
+        <v>0.03604551517658111</v>
       </c>
       <c r="F90" t="n">
-        <v>1.202063425402461e-05</v>
+        <v>0.01123983339429781</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0001298616726798512</v>
+        <v>0.01019589128368013</v>
       </c>
       <c r="H90" t="n">
-        <v>1.32378941661451e-09</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.9864050441778034</v>
+        <v>0.9200243108761655</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72079.fa</t>
+          <t>even_MAG-GUT72100.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.905405015948062e-08</v>
+        <v>0.01517946882312302</v>
       </c>
       <c r="C91" t="n">
-        <v>0.003329600557875428</v>
+        <v>0.01256840883451412</v>
       </c>
       <c r="D91" t="n">
-        <v>8.341757420176099e-05</v>
+        <v>0.9163979907624097</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9945767021500409</v>
+        <v>0.03129174257443755</v>
       </c>
       <c r="F91" t="n">
-        <v>0.001786230780193577</v>
+        <v>0.01945737954729289</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0001384274845812514</v>
+        <v>0.005105009458222762</v>
       </c>
       <c r="H91" t="n">
-        <v>8.560239905694859e-05</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.9945767021500409</v>
+        <v>0.9163979907624097</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4184,80 +3909,74 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72100.fa</t>
+          <t>even_MAG-GUT72283.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6.298275054974128e-09</v>
+        <v>0.002177109694266347</v>
       </c>
       <c r="C92" t="n">
-        <v>0.006767709921559902</v>
+        <v>0.975585693400798</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0001692014817072657</v>
+        <v>0.008540613723411784</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9797107230717591</v>
+        <v>0.01277020472180005</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0005212572518524094</v>
+        <v>0.0009197651409945801</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01281843725726284</v>
+        <v>6.613318729164614e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>1.266471758345948e-05</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.9797107230717591</v>
+        <v>0.975585693400798</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72283.fa</t>
+          <t>even_MAG-GUT72571.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3.184458524227018e-07</v>
+        <v>0.003174581868345164</v>
       </c>
       <c r="C93" t="n">
-        <v>0.007022258413263844</v>
+        <v>0.9776155491767156</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9919700353303756</v>
+        <v>0.001360320389973551</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0008449814228948875</v>
+        <v>0.01701961862308947</v>
       </c>
       <c r="F93" t="n">
-        <v>3.791632411918128e-05</v>
+        <v>0.0008151682209134339</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0001244882404602326</v>
+        <v>1.476172096262316e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>1.823033675212025e-09</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.9919700353303756</v>
+        <v>0.9776155491767156</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4266,39 +3985,36 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72571.fa</t>
+          <t>even_MAG-GUT72585.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.015387965050775e-07</v>
+        <v>0.0169420251223533</v>
       </c>
       <c r="C94" t="n">
-        <v>0.004765993623619031</v>
+        <v>0.9631796752956309</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9944686936829337</v>
+        <v>0.004935125214175508</v>
       </c>
       <c r="E94" t="n">
-        <v>7.258647416317132e-05</v>
+        <v>0.01334884125196282</v>
       </c>
       <c r="F94" t="n">
-        <v>0.000635847660081901</v>
+        <v>0.001587485798932897</v>
       </c>
       <c r="G94" t="n">
-        <v>5.667319635735054e-05</v>
+        <v>6.847316944590574e-06</v>
       </c>
       <c r="H94" t="n">
-        <v>3.824048409763903e-09</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.9944686936829337</v>
+        <v>0.9631796752956309</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4307,39 +4023,36 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72585.fa</t>
+          <t>even_MAG-GUT72832.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8.667287111939368e-08</v>
+        <v>0.006237869133361624</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02423184996574361</v>
+        <v>0.9760310541844688</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9740259280125058</v>
+        <v>0.001003730715082074</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001396031725282045</v>
+        <v>0.008744207222929498</v>
       </c>
       <c r="F95" t="n">
-        <v>6.197110297674053e-06</v>
+        <v>0.007974658166617432</v>
       </c>
       <c r="G95" t="n">
-        <v>0.000339906176821766</v>
+        <v>8.48057754057581e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>3.364782099792445e-10</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.9740259280125058</v>
+        <v>0.9760310541844688</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4348,39 +4061,36 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72832.fa</t>
+          <t>even_MAG-GUT72841.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8.732201872670389e-09</v>
+        <v>0.004273575452441312</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01403260878906464</v>
+        <v>0.982697052623597</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9785435760589754</v>
+        <v>0.003032336757441813</v>
       </c>
       <c r="E96" t="n">
-        <v>2.767372343242981e-05</v>
+        <v>0.009099942182479559</v>
       </c>
       <c r="F96" t="n">
-        <v>2.755115219403977e-06</v>
+        <v>0.0008940733983644254</v>
       </c>
       <c r="G96" t="n">
-        <v>0.007393376515326577</v>
+        <v>3.019585676025627e-06</v>
       </c>
       <c r="H96" t="n">
-        <v>1.065779813405712e-09</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.9785435760589754</v>
+        <v>0.982697052623597</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4389,39 +4099,36 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72841.fa</t>
+          <t>even_MAG-GUT73024.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.641240569855035e-07</v>
+        <v>0.01676773507408899</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01492728935276534</v>
+        <v>0.9605469209192995</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9840127799094609</v>
+        <v>0.005046544930735616</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0009428535874983217</v>
+        <v>0.01140563170869273</v>
       </c>
       <c r="F97" t="n">
-        <v>2.019594173868242e-06</v>
+        <v>0.006109691859686029</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0001147932578269545</v>
+        <v>0.0001234755074971434</v>
       </c>
       <c r="H97" t="n">
-        <v>1.742176697689999e-10</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.9840127799094609</v>
+        <v>0.9605469209192995</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4430,39 +4137,36 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73024.fa</t>
+          <t>even_MAG-GUT73734.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.053733361842412e-08</v>
+        <v>0.002353175108332369</v>
       </c>
       <c r="C98" t="n">
-        <v>0.009880427660198164</v>
+        <v>0.983924224938896</v>
       </c>
       <c r="D98" t="n">
-        <v>0.989438350750632</v>
+        <v>0.002603869407810965</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000578168642621502</v>
+        <v>0.01042381083345971</v>
       </c>
       <c r="F98" t="n">
-        <v>4.73777445219952e-06</v>
+        <v>0.0006899273062017926</v>
       </c>
       <c r="G98" t="n">
-        <v>9.816957464775154e-05</v>
+        <v>4.992405299409355e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>1.150601148428101e-07</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.989438350750632</v>
+        <v>0.983924224938896</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4471,39 +4175,36 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73734.fa</t>
+          <t>even_MAG-GUT73909.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6.253650614723644e-08</v>
+        <v>0.002550884790904292</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008518401536436132</v>
+        <v>0.9844784842697067</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9904509771485827</v>
+        <v>0.003354072180477017</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0009564023390295427</v>
+        <v>0.009021942926013344</v>
       </c>
       <c r="F99" t="n">
-        <v>1.341644739826353e-05</v>
+        <v>0.000592616398199021</v>
       </c>
       <c r="G99" t="n">
-        <v>6.073956295866444e-05</v>
+        <v>1.999434699674403e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>4.290884245754819e-10</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.9904509771485827</v>
+        <v>0.9844784842697067</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4512,39 +4213,36 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73909.fa</t>
+          <t>even_MAG-GUT73910.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.162270364605006e-06</v>
+        <v>0.002723290842160061</v>
       </c>
       <c r="C100" t="n">
-        <v>0.003704792687098722</v>
+        <v>0.9874137569442688</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9957529136115254</v>
+        <v>0.003998861168259373</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0004734778314873642</v>
+        <v>0.005107903356205014</v>
       </c>
       <c r="F100" t="n">
-        <v>1.899878831141948e-06</v>
+        <v>0.0007554103135125177</v>
       </c>
       <c r="G100" t="n">
-        <v>6.575328396923739e-05</v>
+        <v>7.77375594302424e-07</v>
       </c>
       <c r="H100" t="n">
-        <v>4.367235922744104e-10</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.9957529136115254</v>
+        <v>0.9874137569442688</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -4553,80 +4251,74 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73910.fa</t>
+          <t>even_MAG-GUT74302.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.123755990240006e-06</v>
+        <v>0.006918916219898355</v>
       </c>
       <c r="C101" t="n">
-        <v>0.003556780087879842</v>
+        <v>0.01506273752589697</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9950687196523791</v>
+        <v>0.9382044442628247</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001289217399590907</v>
+        <v>0.03609173944709447</v>
       </c>
       <c r="F101" t="n">
-        <v>1.564936296865563e-06</v>
+        <v>0.002609726141210689</v>
       </c>
       <c r="G101" t="n">
-        <v>8.25940315854862e-05</v>
+        <v>0.00111243640307489</v>
       </c>
       <c r="H101" t="n">
-        <v>1.362776285918084e-10</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.9950687196523791</v>
+        <v>0.9382044442628247</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74302.fa</t>
+          <t>even_MAG-GUT74323.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.479233774263656e-07</v>
+        <v>0.01935502695230192</v>
       </c>
       <c r="C102" t="n">
-        <v>0.008637939413922584</v>
+        <v>0.00771785307851338</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0004254832157240704</v>
+        <v>0.9036993008077766</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9905606086174809</v>
+        <v>0.0438940079773897</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0003503482576240847</v>
+        <v>0.01712900759759205</v>
       </c>
       <c r="G102" t="n">
-        <v>9.114860588842079e-06</v>
+        <v>0.008204803586426444</v>
       </c>
       <c r="H102" t="n">
-        <v>1.615771128220043e-05</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.9905606086174809</v>
+        <v>0.9036993008077766</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4635,39 +4327,36 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74323.fa</t>
+          <t>even_MAG-GUT74335.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5.026898557535507e-08</v>
+        <v>0.002132492429433792</v>
       </c>
       <c r="C103" t="n">
-        <v>0.008950720086611378</v>
+        <v>0.01469367484952492</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0002121125111535169</v>
+        <v>0.9491801586133903</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9887017797834898</v>
+        <v>0.02565034636798834</v>
       </c>
       <c r="F103" t="n">
-        <v>0.001034140450194929</v>
+        <v>0.005235944011857107</v>
       </c>
       <c r="G103" t="n">
-        <v>0.001051668989992686</v>
+        <v>0.003107383727805603</v>
       </c>
       <c r="H103" t="n">
-        <v>4.952790957209032e-05</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.9887017797834898</v>
+        <v>0.9491801586133903</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4676,121 +4365,112 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74335.fa</t>
+          <t>even_MAG-GUT74695.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2.13103624800247e-08</v>
+        <v>0.05732312160425803</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0007545975332847954</v>
+        <v>0.03088490263131897</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0004843607504322603</v>
+        <v>0.1627312316680442</v>
       </c>
       <c r="E104" t="n">
-        <v>0.997026389282708</v>
+        <v>0.7136648659191949</v>
       </c>
       <c r="F104" t="n">
-        <v>0.001644270852265832</v>
+        <v>0.0329978171543444</v>
       </c>
       <c r="G104" t="n">
-        <v>7.275538373076378e-05</v>
+        <v>0.002398061022839505</v>
       </c>
       <c r="H104" t="n">
-        <v>1.760488721576416e-05</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.997026389282708</v>
+        <v>0.7136648659191949</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp900538765</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp900538765</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74695.fa</t>
+          <t>even_MAG-GUT75478.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.478434118695752e-08</v>
+        <v>0.01108857108374584</v>
       </c>
       <c r="C105" t="n">
-        <v>0.02760720729521721</v>
+        <v>0.01988876845771365</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0001337788739335055</v>
+        <v>0.9126993759322449</v>
       </c>
       <c r="E105" t="n">
-        <v>0.002233376332824057</v>
+        <v>0.04963479418690148</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9622847041742432</v>
+        <v>0.00543106662497187</v>
       </c>
       <c r="G105" t="n">
-        <v>0.007725912306179918</v>
+        <v>0.001257423714422368</v>
       </c>
       <c r="H105" t="n">
-        <v>1.5006233260818e-05</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.9622847041742432</v>
+        <v>0.9126993759322449</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp900538765</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp900538765</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75478.fa</t>
+          <t>even_MAG-GUT76906.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.922435863665953e-08</v>
+        <v>0.01507969365456505</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004069564160498812</v>
+        <v>0.02504122355481181</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0002004763796749126</v>
+        <v>0.893746582820538</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9924462813711197</v>
+        <v>0.05178174894639621</v>
       </c>
       <c r="F106" t="n">
-        <v>0.003157701584079863</v>
+        <v>0.01219695535832903</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001245828942979902</v>
+        <v>0.002153795665359756</v>
       </c>
       <c r="H106" t="n">
-        <v>1.354385970090521e-06</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.9924462813711197</v>
+        <v>0.893746582820538</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4799,39 +4479,36 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76906.fa</t>
+          <t>even_MAG-GUT76981.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.455067755249942e-08</v>
+        <v>0.01327834635691455</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0107795268533554</v>
+        <v>0.02280420384568908</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0005023723156006598</v>
+        <v>0.9335947930267612</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9867023044032351</v>
+        <v>0.02609932096921801</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00188244452970101</v>
+        <v>0.003627147065219238</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001227249526167928</v>
+        <v>0.0005961887361978316</v>
       </c>
       <c r="H107" t="n">
-        <v>1.061239481346143e-05</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.9867023044032351</v>
+        <v>0.9335947930267612</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4840,39 +4517,36 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76981.fa</t>
+          <t>even_MAG-GUT76988.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>7.500736497849703e-08</v>
+        <v>0.01276240801510727</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002618237234230809</v>
+        <v>0.01147928422054548</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0007961608748726715</v>
+        <v>0.9390401199557927</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9959131859690595</v>
+        <v>0.03138656216098132</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0005395071483682093</v>
+        <v>0.004873755536394842</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0001295391200693929</v>
+        <v>0.0004578701111782503</v>
       </c>
       <c r="H108" t="n">
-        <v>3.294646034337715e-06</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.9959131859690595</v>
+        <v>0.9390401199557927</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4881,39 +4555,36 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76988.fa</t>
+          <t>even_MAG-GUT76995.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.358806214362721e-08</v>
+        <v>0.01392659605894148</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0142260807417218</v>
+        <v>0.009499300251638691</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0007311043358351561</v>
+        <v>0.9479486962863248</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9842334612713173</v>
+        <v>0.02379481492761382</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0003599747672596326</v>
+        <v>0.004382668330089518</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0004488278530759444</v>
+        <v>0.0004479241453916309</v>
       </c>
       <c r="H109" t="n">
-        <v>5.074427280616077e-07</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.9842334612713173</v>
+        <v>0.9479486962863248</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4922,39 +4593,36 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76995.fa</t>
+          <t>even_MAG-GUT77004.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.68044867757457e-07</v>
+        <v>0.005330574577481104</v>
       </c>
       <c r="C110" t="n">
-        <v>0.003664801513971988</v>
+        <v>0.02826813736071632</v>
       </c>
       <c r="D110" t="n">
-        <v>0.001161100974415628</v>
+        <v>0.9099225854124694</v>
       </c>
       <c r="E110" t="n">
-        <v>0.994556905814589</v>
+        <v>0.04327037069026585</v>
       </c>
       <c r="F110" t="n">
-        <v>0.000537670654669965</v>
+        <v>0.007703401637406529</v>
       </c>
       <c r="G110" t="n">
-        <v>6.161103994389586e-05</v>
+        <v>0.005504930321660609</v>
       </c>
       <c r="H110" t="n">
-        <v>1.774195754172492e-05</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.994556905814589</v>
+        <v>0.9099225854124694</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>s__CAG-495 sp001917125</t>
         </is>
@@ -4963,80 +4631,74 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77004.fa</t>
+          <t>even_MAG-GUT77348.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.06662270311157e-07</v>
+        <v>0.001940415005791113</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003851007424075998</v>
+        <v>0.9819330741402446</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001173214773564788</v>
+        <v>0.003164432240733974</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9935344450814503</v>
+        <v>0.01053334606434625</v>
       </c>
       <c r="F111" t="n">
-        <v>0.001151005097971106</v>
+        <v>0.00242511393888812</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0002645082966894266</v>
+        <v>3.618609995943651e-06</v>
       </c>
       <c r="H111" t="n">
-        <v>2.571266397824198e-05</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.9935344450814503</v>
+        <v>0.9819330741402446</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77348.fa</t>
+          <t>even_MAG-GUT77357.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.054867546470131e-06</v>
+        <v>0.004026741856810628</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004132504916478811</v>
+        <v>0.9807010308706172</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9951115750404922</v>
+        <v>0.007215340714262024</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0004259561058370455</v>
+        <v>0.007866927725799187</v>
       </c>
       <c r="F112" t="n">
-        <v>2.836230004381365e-05</v>
+        <v>0.0001883500432626011</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0003005465007102897</v>
+        <v>1.608789248295001e-06</v>
       </c>
       <c r="H112" t="n">
-        <v>2.688913334264569e-10</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.9951115750404922</v>
+        <v>0.9807010308706172</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5045,39 +4707,36 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77357.fa</t>
+          <t>even_MAG-GUT77371.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.70126155463884e-06</v>
+        <v>0.002891476248649054</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02265030834125278</v>
+        <v>0.9853894198434392</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9745821876485881</v>
+        <v>0.00551122565709043</v>
       </c>
       <c r="E113" t="n">
-        <v>0.002761870241125139</v>
+        <v>0.005839156386885157</v>
       </c>
       <c r="F113" t="n">
-        <v>2.832331772169103e-06</v>
+        <v>0.0003678423243138815</v>
       </c>
       <c r="G113" t="n">
-        <v>1.099056337050424e-06</v>
+        <v>8.795396221498649e-07</v>
       </c>
       <c r="H113" t="n">
-        <v>1.119370030232074e-09</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.9745821876485881</v>
+        <v>0.9853894198434392</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5086,39 +4745,36 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77371.fa</t>
+          <t>even_MAG-GUT77389.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.968780603143515e-07</v>
+        <v>0.002419810127001733</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02571944589592396</v>
+        <v>0.9845211634970974</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9740767727676228</v>
+        <v>0.004421721552525226</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0001955683605470852</v>
+        <v>0.007720925355712878</v>
       </c>
       <c r="F114" t="n">
-        <v>1.296153331933293e-06</v>
+        <v>0.0009143141313836121</v>
       </c>
       <c r="G114" t="n">
-        <v>6.419552813937285e-06</v>
+        <v>2.065336279174239e-06</v>
       </c>
       <c r="H114" t="n">
-        <v>3.916998081153423e-10</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.9740767727676228</v>
+        <v>0.9845211634970974</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J114" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5127,203 +4783,188 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77389.fa</t>
+          <t>even_MAG-GUT77839.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.444907376419548e-06</v>
+        <v>0.02499393939451933</v>
       </c>
       <c r="C115" t="n">
-        <v>0.00290325165974297</v>
+        <v>0.01182477687910659</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9960708771291039</v>
+        <v>0.9080897609154498</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0009157432458725982</v>
+        <v>0.03925333526487688</v>
       </c>
       <c r="F115" t="n">
-        <v>1.868578499194503e-06</v>
+        <v>0.0145864311098904</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0001058140555940791</v>
+        <v>0.001251756436157232</v>
       </c>
       <c r="H115" t="n">
-        <v>4.238107487290311e-10</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.9960708771291039</v>
+        <v>0.9080897609154498</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77839.fa</t>
+          <t>even_MAG-GUT82789.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.288266755537681e-08</v>
+        <v>0.0173322190823279</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01193285318115838</v>
+        <v>0.9677203025220339</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0007462633602590768</v>
+        <v>0.007201675436942562</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9841612281396028</v>
+        <v>0.006941776477885185</v>
       </c>
       <c r="F116" t="n">
-        <v>0.002507125554473204</v>
+        <v>0.0008003598309880434</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0006498169356521297</v>
+        <v>3.666649822532493e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>2.689946187027405e-06</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.9841612281396028</v>
+        <v>0.9677203025220339</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82789.fa</t>
+          <t>even_MAG-GUT83636.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.187325100797638e-06</v>
+        <v>0.08822457421773712</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0334184668725403</v>
+        <v>0.1198473468914685</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9664906284045456</v>
+        <v>0.3594497845499861</v>
       </c>
       <c r="E117" t="n">
-        <v>3.362923564487717e-05</v>
+        <v>0.3633642195923319</v>
       </c>
       <c r="F117" t="n">
-        <v>1.95448543155394e-06</v>
+        <v>0.01685554588562585</v>
       </c>
       <c r="G117" t="n">
-        <v>5.412965592870754e-05</v>
+        <v>0.05225852886285038</v>
       </c>
       <c r="H117" t="n">
-        <v>4.020808361181124e-09</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.9664906284045456</v>
+        <v>0.3633642195923319</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp900538765</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp900538765(reject)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83636.fa</t>
+          <t>even_MAG-GUT83640.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.03123351699381267</v>
+        <v>0.06271281130391018</v>
       </c>
       <c r="C118" t="n">
-        <v>0.210934152687711</v>
+        <v>0.8979291766817673</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1712072776588365</v>
+        <v>0.008918222760133689</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2870143075461874</v>
+        <v>0.02580259644136942</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2390463647861687</v>
+        <v>0.004594187692130785</v>
       </c>
       <c r="G118" t="n">
-        <v>0.002435099720861456</v>
+        <v>4.300512068850831e-05</v>
       </c>
       <c r="H118" t="n">
-        <v>0.05812928060642236</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.2870143075461874</v>
+        <v>0.8979291766817673</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125(reject)</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83640.fa</t>
+          <t>even_MAG-GUT83666.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.593807683769979e-07</v>
+        <v>0.003316747006579494</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1159153827017871</v>
+        <v>0.9813939831516552</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8837002063823075</v>
+        <v>0.008538364687678492</v>
       </c>
       <c r="E119" t="n">
-        <v>3.066090633735702e-05</v>
+        <v>0.006111545202320422</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0003477375390855836</v>
+        <v>0.0006366997879137853</v>
       </c>
       <c r="G119" t="n">
-        <v>5.775240591203271e-06</v>
+        <v>2.660163852670674e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>7.784912288956123e-08</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.8837002063823075</v>
+        <v>0.9813939831516552</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5332,39 +4973,36 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83666.fa</t>
+          <t>even_MAG-GUT83683.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2.104941006385066e-05</v>
+        <v>0.02800437156083044</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0002804347073412868</v>
+        <v>0.9540272348763951</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9984081949053446</v>
+        <v>0.008213186327854408</v>
       </c>
       <c r="E120" t="n">
-        <v>0.001219431801442782</v>
+        <v>0.007636515399049425</v>
       </c>
       <c r="F120" t="n">
-        <v>2.914867535317781e-05</v>
+        <v>0.002112882264880146</v>
       </c>
       <c r="G120" t="n">
-        <v>4.171528798806939e-05</v>
+        <v>5.809570990570707e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>2.52124660989193e-08</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.9984081949053446</v>
+        <v>0.9540272348763951</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5373,162 +5011,150 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83683.fa</t>
+          <t>even_MAG-GUT840.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.976546274821816e-07</v>
+        <v>0.9009477121296594</v>
       </c>
       <c r="C121" t="n">
-        <v>0.03010214061301474</v>
+        <v>0.01190799932818811</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9688961961101827</v>
+        <v>0.01676194570359878</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0008834025978655677</v>
+        <v>0.0673627576602199</v>
       </c>
       <c r="F121" t="n">
-        <v>1.20201854099894e-06</v>
+        <v>0.002666234931280698</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0001168537900171702</v>
+        <v>0.0003533502470530969</v>
       </c>
       <c r="H121" t="n">
-        <v>7.215751205031873e-09</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.9688961961101827</v>
+        <v>0.9009477121296594</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT840.fa</t>
+          <t>even_MAG-GUT84088.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.874749570159392e-07</v>
+        <v>0.01295205016089098</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9898146947747906</v>
+        <v>0.01997411113180774</v>
       </c>
       <c r="D122" t="n">
-        <v>0.001530169278169615</v>
+        <v>0.9545570087140878</v>
       </c>
       <c r="E122" t="n">
-        <v>0.005121345867191727</v>
+        <v>0.009832298874659058</v>
       </c>
       <c r="F122" t="n">
-        <v>0.001798672824815833</v>
+        <v>0.002572945791903889</v>
       </c>
       <c r="G122" t="n">
-        <v>0.001610670099776146</v>
+        <v>0.0001115853266504936</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0001239596802990839</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.9898146947747906</v>
+        <v>0.9545570087140878</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84088.fa</t>
+          <t>even_MAG-GUT84361.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>7.811698508031347e-07</v>
+        <v>0.004247825221504737</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0011806518409785</v>
+        <v>0.9760862469830649</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00386379019808601</v>
+        <v>0.004870067573377894</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9947377016182617</v>
+        <v>0.01168479947072975</v>
       </c>
       <c r="F123" t="n">
-        <v>8.377053403272527e-05</v>
+        <v>0.003104074280219894</v>
       </c>
       <c r="G123" t="n">
-        <v>8.456060181481729e-05</v>
+        <v>6.98647110280649e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>4.874403697545444e-05</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.9947377016182617</v>
+        <v>0.9760862469830649</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84361.fa</t>
+          <t>even_MAG-GUT84374.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.848226912098298e-08</v>
+        <v>0.01229402625966046</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01340417206514014</v>
+        <v>0.9727018018652385</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9858275015920187</v>
+        <v>0.002073460391825986</v>
       </c>
       <c r="E124" t="n">
-        <v>0.000608002288915485</v>
+        <v>0.01246554722469162</v>
       </c>
       <c r="F124" t="n">
-        <v>9.61613053288655e-06</v>
+        <v>0.0004584974352477383</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001506867601935321</v>
+        <v>6.666823335797698e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>2.680930220540699e-09</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.9858275015920187</v>
+        <v>0.9727018018652385</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J124" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5537,203 +5163,188 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84374.fa</t>
+          <t>even_MAG-GUT84479.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.031687132600368e-07</v>
+        <v>0.0248483275910406</v>
       </c>
       <c r="C125" t="n">
-        <v>0.05540738690718756</v>
+        <v>0.01707907981913865</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9444680865736111</v>
+        <v>0.9339266450304871</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0001076272256545386</v>
+        <v>0.01915842423762373</v>
       </c>
       <c r="F125" t="n">
-        <v>8.522110760019509e-06</v>
+        <v>0.004738050202595316</v>
       </c>
       <c r="G125" t="n">
-        <v>8.273488103694331e-06</v>
+        <v>0.0002494731191146978</v>
       </c>
       <c r="H125" t="n">
-        <v>5.259697176302218e-10</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.9444680865736111</v>
+        <v>0.9339266450304871</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84479.fa</t>
+          <t>even_MAG-GUT85462.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6.24796529994838e-08</v>
+        <v>0.003575749852671907</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04205724750791019</v>
+        <v>0.973777404088389</v>
       </c>
       <c r="D126" t="n">
-        <v>0.002828520778818585</v>
+        <v>0.008864039412085523</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9550082729299773</v>
+        <v>0.01341976119724817</v>
       </c>
       <c r="F126" t="n">
-        <v>7.050457807914285e-05</v>
+        <v>0.0003590379244434812</v>
       </c>
       <c r="G126" t="n">
-        <v>3.488374064709813e-05</v>
+        <v>4.007525161885609e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>5.07984914484328e-07</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.9550082729299773</v>
+        <v>0.973777404088389</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85462.fa</t>
+          <t>even_MAG-GUT85601.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1.930273199230348e-07</v>
+        <v>0.01126075781780369</v>
       </c>
       <c r="C127" t="n">
-        <v>0.008751675526051968</v>
+        <v>0.04149819097435642</v>
       </c>
       <c r="D127" t="n">
-        <v>0.989720604102196</v>
+        <v>0.9231757129749214</v>
       </c>
       <c r="E127" t="n">
-        <v>0.001364324390080426</v>
+        <v>0.02218632614765992</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0001399069249714892</v>
+        <v>0.001804407880221467</v>
       </c>
       <c r="G127" t="n">
-        <v>2.329540911978512e-05</v>
+        <v>7.460420503699673e-05</v>
       </c>
       <c r="H127" t="n">
-        <v>6.202605964564344e-10</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.989720604102196</v>
+        <v>0.9231757129749214</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85601.fa</t>
+          <t>even_MAG-GUT85702.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.937538371832404e-06</v>
+        <v>0.003484600950209976</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02065295803777422</v>
+        <v>0.9697043968583923</v>
       </c>
       <c r="D128" t="n">
-        <v>0.008674510787032011</v>
+        <v>0.00983229788649579</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9705776786904942</v>
+        <v>0.01518296024587572</v>
       </c>
       <c r="F128" t="n">
-        <v>7.559923326856674e-05</v>
+        <v>0.001777671528831959</v>
       </c>
       <c r="G128" t="n">
-        <v>1.522321103405365e-05</v>
+        <v>1.807253019426535e-05</v>
       </c>
       <c r="H128" t="n">
-        <v>9.250202514072083e-08</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.9705776786904942</v>
+        <v>0.9697043968583923</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp001917125</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp001917125</t>
+          <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85702.fa</t>
+          <t>even_MAG-GUT85992.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.327600716263134e-07</v>
+        <v>0.007611664534508719</v>
       </c>
       <c r="C129" t="n">
-        <v>0.006816121949944918</v>
+        <v>0.9515409111125935</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9911225145058805</v>
+        <v>0.02496379285546961</v>
       </c>
       <c r="E129" t="n">
-        <v>0.001623835783258102</v>
+        <v>0.01168909112493051</v>
       </c>
       <c r="F129" t="n">
-        <v>8.072912435722296e-07</v>
+        <v>0.004190877936314429</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0004363733631440511</v>
+        <v>3.6624361832374e-06</v>
       </c>
       <c r="H129" t="n">
-        <v>1.434645721955239e-08</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.9911225145058805</v>
+        <v>0.9515409111125935</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J129" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5742,39 +5353,36 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85992.fa</t>
+          <t>even_MAG-GUT86329.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.255093058848972e-06</v>
+        <v>0.0004938798078798453</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0009725992957943426</v>
+        <v>0.9756064907746881</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9866851155188596</v>
+        <v>0.01518588527382948</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01225677475717782</v>
+        <v>0.007866553037153015</v>
       </c>
       <c r="F130" t="n">
-        <v>2.103780062523913e-05</v>
+        <v>0.0008465500614056817</v>
       </c>
       <c r="G130" t="n">
-        <v>6.321729974110906e-05</v>
+        <v>6.410450438674962e-07</v>
       </c>
       <c r="H130" t="n">
-        <v>2.347432188552908e-10</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.9866851155188596</v>
+        <v>0.9756064907746881</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J130" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5783,39 +5391,36 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86329.fa</t>
+          <t>even_MAG-GUT86341.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.501704752417751e-06</v>
+        <v>0.005650155595387849</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0001448142498506159</v>
+        <v>0.9775739316924381</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9897204302622491</v>
+        <v>0.001851427206437626</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01007410946004393</v>
+        <v>0.01430574827104715</v>
       </c>
       <c r="F131" t="n">
-        <v>1.100274781141689e-05</v>
+        <v>0.0006170778250779061</v>
       </c>
       <c r="G131" t="n">
-        <v>4.514152526439466e-05</v>
+        <v>1.659409611372841e-06</v>
       </c>
       <c r="H131" t="n">
-        <v>5.002802800441824e-11</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.9897204302622491</v>
+        <v>0.9775739316924381</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J131" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5824,39 +5429,36 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86341.fa</t>
+          <t>even_MAG-GUT86352.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.124232643215258e-07</v>
+        <v>0.004920897424653122</v>
       </c>
       <c r="C132" t="n">
-        <v>0.03730795529688932</v>
+        <v>0.9708241049836668</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9625434389635555</v>
+        <v>0.01008980613097385</v>
       </c>
       <c r="E132" t="n">
-        <v>3.416208246251595e-05</v>
+        <v>0.01117838676622128</v>
       </c>
       <c r="F132" t="n">
-        <v>1.526931404349981e-06</v>
+        <v>0.002982366150398093</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0001127041733352272</v>
+        <v>4.438544086924021e-06</v>
       </c>
       <c r="H132" t="n">
-        <v>1.290885999027232e-10</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.9625434389635555</v>
+        <v>0.9708241049836668</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J132" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>
@@ -5865,80 +5467,36 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86352.fa</t>
+          <t>even_MAG-GUT86570.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.672973687994276e-07</v>
+        <v>0.00331077883147942</v>
       </c>
       <c r="C133" t="n">
-        <v>0.003466904283441913</v>
+        <v>0.9459157553814431</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9903140398591324</v>
+        <v>0.02605680204993574</v>
       </c>
       <c r="E133" t="n">
-        <v>0.005423288497716131</v>
+        <v>0.02443236889210888</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0004488873457023836</v>
+        <v>0.0002672673631385511</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0003465125314726316</v>
+        <v>1.702748189412569e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>1.851658212857561e-10</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.9903140398591324</v>
+        <v>0.9459157553814431</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
       </c>
       <c r="J133" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86570.fa</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>8.811124393577677e-08</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.0006621076752948157</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.9415372399560856</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.05765134801913166</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0001461834191354197</v>
-      </c>
-      <c r="G134" t="n">
-        <v>3.031912047902056e-06</v>
-      </c>
-      <c r="H134" t="n">
-        <v>9.070606619383087e-10</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.9415372399560856</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>s__CAG-495 sp000436375</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-495.xlsx
+++ b/outputs-HGR-r202/g__CAG-495.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +898,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -876,6 +936,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -909,6 +974,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -942,6 +1012,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,6 +1050,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1008,6 +1088,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1041,6 +1126,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1074,6 +1164,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1107,6 +1202,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1140,6 +1240,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1173,6 +1278,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1206,6 +1316,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1239,6 +1354,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1272,6 +1392,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1305,6 +1430,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1338,6 +1468,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1371,6 +1506,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1404,6 +1544,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1437,6 +1582,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1470,6 +1620,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1503,6 +1658,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1536,6 +1696,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1569,6 +1734,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1602,6 +1772,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1635,6 +1810,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1668,6 +1848,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1701,6 +1886,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1734,6 +1924,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1767,6 +1962,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1800,6 +2000,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1833,6 +2038,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1866,6 +2076,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1899,6 +2114,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1932,6 +2152,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1965,6 +2190,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1998,6 +2228,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2031,6 +2266,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2064,6 +2304,11 @@
           <t>s__CAG-495 sp900540425</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp900540425</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2097,6 +2342,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2130,6 +2380,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2163,6 +2418,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2196,6 +2456,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2229,6 +2494,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2262,6 +2532,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2295,6 +2570,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2328,6 +2608,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2361,6 +2646,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2394,6 +2684,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2427,6 +2722,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2460,6 +2760,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2493,6 +2798,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2526,6 +2836,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2559,6 +2874,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2592,6 +2912,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2625,6 +2950,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2658,6 +2988,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2691,6 +3026,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2724,6 +3064,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2757,6 +3102,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2790,6 +3140,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2823,6 +3178,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2856,6 +3216,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2889,6 +3254,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2922,6 +3292,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2955,6 +3330,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2988,6 +3368,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3021,6 +3406,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3054,6 +3444,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3087,6 +3482,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3120,6 +3520,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3153,6 +3558,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3186,6 +3596,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3219,6 +3634,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3252,6 +3672,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3285,6 +3710,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3318,6 +3748,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3351,6 +3786,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3384,6 +3824,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3417,6 +3862,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3450,6 +3900,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3483,6 +3938,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3516,6 +3976,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3549,6 +4014,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3582,6 +4052,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3615,6 +4090,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3648,6 +4128,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3681,6 +4166,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3714,6 +4204,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3747,6 +4242,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3780,6 +4280,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3813,6 +4318,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3846,6 +4356,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3879,6 +4394,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3912,6 +4432,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3945,6 +4470,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3978,6 +4508,11 @@
           <t>s__CAG-495 sp900538765</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp900538765</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4011,6 +4546,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4044,6 +4584,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4077,6 +4622,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4110,6 +4660,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4143,6 +4698,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4176,6 +4736,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4209,6 +4774,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4242,6 +4812,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4275,6 +4850,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4308,6 +4888,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4341,6 +4926,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4374,6 +4964,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4407,6 +5002,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4440,6 +5040,11 @@
           <t>s__CAG-495 sp900538765</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp900538765(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4473,6 +5078,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4506,6 +5116,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4539,6 +5154,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4572,6 +5192,11 @@
           <t>s__CAG-495 sp000432275</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000432275</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4605,6 +5230,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4638,6 +5268,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4671,6 +5306,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4704,6 +5344,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4737,6 +5382,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4770,6 +5420,11 @@
           <t>s__CAG-495 sp001917125</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp001917125</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4803,6 +5458,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4836,6 +5496,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4869,6 +5534,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4902,6 +5572,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4935,6 +5610,11 @@
           <t>s__CAG-495 sp000436375</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4964,6 +5644,11 @@
         <v>0.9459157553814431</v>
       </c>
       <c r="I137" t="inlineStr">
+        <is>
+          <t>s__CAG-495 sp000436375</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>s__CAG-495 sp000436375</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-495.xlsx
+++ b/outputs-HGR-r202/g__CAG-495.xlsx
@@ -1090,7 +1090,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp900538765</t>
+          <t>s__CAG-495 sp900538765(reject)</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp900538765</t>
+          <t>s__CAG-495 sp900538765(reject)</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000432275</t>
+          <t>s__CAG-495 sp000432275(reject)</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp000436375</t>
+          <t>s__CAG-495 sp000436375(reject)</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>s__CAG-495 sp900538765</t>
+          <t>s__CAG-495 sp900538765(reject)</t>
         </is>
       </c>
     </row>
